--- a/接口测试/接口测试用例.xlsx
+++ b/接口测试/接口测试用例.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44971D64-F17D-4A0E-A266-0372C16977EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16316354-D7EA-43CA-8A60-C1D7474876F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,15 +53,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求成功，返回码为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tq-it-001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tq-it-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求成功，返回码为200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +483,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -510,7 +510,7 @@
     </row>
     <row r="2" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -519,12 +519,12 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
